--- a/src/main/resources/ExcelDemo/大众模板.xlsx
+++ b/src/main/resources/ExcelDemo/大众模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10950" windowHeight="5700"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
-  <si>
-    <t>车架号</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>公司</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>参与评选（是0否1）</t>
-  </si>
-  <si>
-    <t>车主（是1否0）</t>
-  </si>
-  <si>
-    <t>主副驾</t>
   </si>
   <si>
     <t>车牌号</t>
@@ -105,9 +90,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -127,7 +112,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,15 +178,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,36 +209,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,30 +241,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,23 +482,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,7 +507,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,23 +530,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,16 +561,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,140 +594,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -750,9 +733,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1103,271 +1083,241 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AI3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.8" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="13.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="9.625" customWidth="1"/>
-    <col min="8" max="8" width="16.8333333333333" customWidth="1"/>
-    <col min="9" max="9" width="17.6666666666667" customWidth="1"/>
-    <col min="10" max="10" width="18.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="18.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="14.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="15.1666666666667" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="14.6666666666667" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="12.5" customWidth="1"/>
-    <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="13.1666666666667" customWidth="1"/>
-    <col min="22" max="22" width="12.8333333333333" customWidth="1"/>
-    <col min="23" max="23" width="13" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="9.62962962962963" customWidth="1"/>
+    <col min="3" max="3" width="10.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="10.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="9.88888888888889" customWidth="1"/>
+    <col min="6" max="6" width="10.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="9.11111111111111" customWidth="1"/>
+    <col min="8" max="8" width="9.22222222222222" customWidth="1"/>
+    <col min="9" max="10" width="9.33333333333333" customWidth="1"/>
+    <col min="11" max="11" width="8.22222222222222" customWidth="1"/>
+    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="8.55555555555556" customWidth="1"/>
+    <col min="15" max="15" width="0.222222222222222" customWidth="1"/>
+    <col min="16" max="16" width="8.33333333333333" customWidth="1"/>
+    <col min="17" max="17" width="7.66666666666667" customWidth="1"/>
+    <col min="18" max="18" width="8.77777777777778" customWidth="1"/>
+    <col min="19" max="19" width="7.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40" customHeight="1" spans="1:36">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="40" customHeight="1" spans="1:31">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="1"/>
+      <c r="T1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="3" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="5" t="s">
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="3" t="s">
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="4" t="s">
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="6" t="s">
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4" t="s">
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="6" t="s">
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="N2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE2" s="2"/>
     </row>
-    <row r="2" spans="1:36">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ2" s="6"/>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+    <row r="3" spans="1:31">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="6"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="2"/>
     </row>
     <row r="4" ht="24.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:T1"/>
-    <mergeCell ref="U1:V1"/>
+  <mergeCells count="43">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AD1"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
@@ -1382,21 +1332,16 @@
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="V1:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA1:AA3"/>
+    <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ1:AJ3"/>
+    <mergeCell ref="AE1:AE3"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1413,7 +1358,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1429,7 +1374,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/main/resources/ExcelDemo/大众模板.xlsx
+++ b/src/main/resources/ExcelDemo/大众模板.xlsx
@@ -60,7 +60,7 @@
     <t>乘客表彰</t>
   </si>
   <si>
-    <t>二维码支付</t>
+    <t>企业表彰</t>
   </si>
   <si>
     <t>加分总评</t>
@@ -89,10 +89,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -112,6 +112,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -120,14 +187,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,22 +209,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,91 +254,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -270,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,11 +479,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +505,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,41 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,16 +567,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,8 +1085,8 @@
   <sheetPr/>
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.8" outlineLevelRow="3"/>
